--- a/situation data2.xlsx
+++ b/situation data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\SNU AI\기초 프로그래밍\project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sos04\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938CF2F2-D539-4E8A-9B54-1F565B5E6838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AC21CB-990A-4241-8BEF-ECF5A2672453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B70EC527-A5C0-4987-A138-744291DBACC3}"/>
+    <workbookView xWindow="44865" yWindow="4050" windowWidth="14400" windowHeight="9150" xr2:uid="{B70EC527-A5C0-4987-A138-744291DBACC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>돈까스 1개를 만드는 데 돼지고기 bkg이 필요합니다. 돼지고기 bkg으로 돈까스를 최대한 만들고 남는 돼지고기의 양은 몇 kg인지 구해 보세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도자기 1개를 만드는 데 점토 bkg이 필요합니다. 점토 akg으로 도자기를 최대한 만들고 남는 점토의 양은 몇 kg인지 구해 보세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,6 +53,10 @@
   </si>
   <si>
     <t>줄 am를 한 번에 bm씩 잘라 매듭을 만들 때 매듭을 최대한 만들고 남는 줄의 길이는 몇 m인지 구해 보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈까스 1개를 만드는 데 돼지고기 bkg이 필요합니다. 돼지고기 akg으로 돈까스를 최대한 만들고 남는 돼지고기의 양은 몇 kg인지 구해 보세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,22 +423,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B7D572-DFBB-4F75-AA11-1985E1F2627D}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="130.69921875" customWidth="1"/>
+    <col min="2" max="2" width="130.6640625" customWidth="1"/>
     <col min="3" max="3" width="116.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -446,36 +446,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
